--- a/Translator/excel/Translated/Translated_French.xlsx
+++ b/Translator/excel/Translated/Translated_French.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
   <si>
     <t>Tag</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>French</t>
   </si>
   <si>
     <t>&lt;Actions&gt;&lt;browsed_song_hashtag&gt;</t>
@@ -420,7 +420,211 @@
     <t>Select which pads will record which stems for stemsSwap banks</t>
   </si>
   <si>
-    <t>ajouter ou supprimer un hashtag de l’utilisateur 1, de l’utilisateur 2 ou du commentaire du fichier actuellement consulté : "browsed_song_hashtag 'user 1' '#high_energy'"</t>
+    <t>ajouter ou supprimer un hashtag de user1, user2 ou du commentaire du fichier actuellement consulté : "browsed_song_hashtag 'user 1' '#high_energy'"</t>
+  </si>
+  <si>
+    <t>Récupérer le BPM de la platine sélectionnée à l’aide de effect_arm_deck.</t>
+  </si>
+  <si>
+    <t>Pour les contrôleurs disposant d’un sélecteur de platine pour les effets, choisissez la platine sur laquelle les effets seront activés en utilisant effect_arm_active
+Utilisez 'effect_arm_deck single' pour n’autoriser qu’une seule platine armée à la fois
+Utilisez 'effect_arm_deck master' pour sélectionner le master au lieu d’une platine. 'sampler', 'mic' et 'aux' sont également pris en charge</t>
+  </si>
+  <si>
+    <t>Déplacez le paramètre d’effet de l’effet sélectionné via effect_arm_select sur la platine sélectionnée via effect_arm_deck.
+Utilisez "effect_arm_slider 1 2" pour déplacer le deuxième curseur du premier emplacement.</t>
+  </si>
+  <si>
+    <t>Obtenez le libellé du paramètre d’effet de l’effet sélectionné à l’aide de effect_arm_select sur la platine sélectionnée à l’aide de effect_arm_deck.
+Utilisez 'effect_arm_slider_label 1 short' pour obtenir le libellé court.</t>
+  </si>
+  <si>
+    <t>Obtenez le nom du paramètre de l’effet sélectionné via effect_arm_select sur la platine sélectionnée via effect_arm_deck.
+Utilisez 'effect_arm_slider_name 1 short' pour obtenir le libellé court.</t>
+  </si>
+  <si>
+    <t>Récupère le texte du paramètre de l’effet sélectionné à l’aide de effect_arm_select sur la platine sélectionnée à l’aide de effect_arm_deck.</t>
+  </si>
+  <si>
+    <t>Active/désactive l’activation d’un emplacement via effect_arm_active.</t>
+  </si>
+  <si>
+    <t>Définit/obtient un BPM personnalisé pour les plug-ins activés sur cette platine. Utilisez « effect_bpm_deck off » pour réinitialiser et utiliser le BPM du morceau, ou « effect_bpm_deck 120 » pour le régler à 120 BPM.</t>
+  </si>
+  <si>
+    <t>Tapez un BPM personnalisé pour les plug-ins activés sur cette platine. Utilisez 'effect_bpm_deck off' pour réinitialiser et utiliser le BPM du morceau.</t>
+  </si>
+  <si>
+    <t>Obtenir des informations sur une boucle sauvegardée : get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
+"get_saved_loop 'next' 'name'" peut être utilisé pour obtenir des informations sur la prochaine boucle sauvegardée
+"get_saved_loop 1 'name'" peut être utilisé pour obtenir des informations sur la première boucle sauvegardée</t>
+  </si>
+  <si>
+    <t>Obtenir le niveau d’une seule bande du spectre. 'get_spectrum_band 1'
+Utilisez 'deck master' devant pour obtenir le spectre de la platine master : 'deck master get_spectrum_band 1'
+Par défaut, il y a 32 bandes ; pour utiliser un nombre plus petit, utilisez 'get_spectrum_band 1 3' pour obtenir la première de 3 bandes
+Le troisième paramètre peut être utilisé pour obtenir le spectre des stems : 'get_spectrum_band 1 32 vocals'</t>
+  </si>
+  <si>
+    <t>Obtient le niveau du signal après le volume master. Si aucune platine n’est spécifiée, le niveau master est renvoyé.
+Utilisez "get_vu_meter 'mic'" pour le niveau du microphone ou "get_vu_meter 'sampler'" pour le niveau du sampleur.
+Utilisez "get_level 'vocal'" pour le vumètre des voix ; d’autres noms de stems sont également pris en charge.</t>
+  </si>
+  <si>
+    <t>ajouter ou supprimer un hashtag de user1, user2 ou du commentaire du morceau actuellement chargé : "loaded_song_hashtag 'user 1' '#high_energy'"</t>
+  </si>
+  <si>
+    <t>Activer/désactiver un effet nommé avec une seule touche. Les paramètres de l’effet peuvent aussi être spécifiés.
+'padfx "echo" 40% 90%' pour démarrer/arrêter l’effet d’écho avec le premier paramètre à 40 % et le second à 90 %. Quand l’effet est arrêté, les paramètres reviennent à leurs valeurs d’origine.
+'padfx "echo" 40% 1bt' pour démarrer/arrêter l’écho avec le premier paramètre à 40 % et une longueur de 1 temps
+'padfx "echo" 40% 90% smart_pressed' smart_pressed agit comme un toggle lors d’un appui bref, ou en maintien tant que le bouton est pressé
+'padfx "echo" 40% 90% "TRAIL:on"' après les curseurs, il est possible d’ajouter des chaînes pour désactiver/activer des paramètres de type interrupteur en indiquant leur nom, un deux-points et "on" pour activer ou "off" pour désactiver
+'padfx "echo out" 80% "solostem:vocal"' en dernier paramètre, vous pouvez ajouter solostem:stemname pour ne laisser audible que ce stem pendant l’application de l’effet
+'padfx "echo out" "mutestem:rhythm"' en dernier paramètre, vous pouvez ajouter mutestem:stemname pour couper ce stem pendant l’application de l’effet
+'padfx "reverb" "stemfx:vocal"' en dernier paramètre, vous pouvez ajouter stemfx:stemname pour appliquer l’effet uniquement à ce stem (les autres stems continueront à jouer normalement)
+Les noms de stem peuvent être Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+  </si>
+  <si>
+    <t>Règle le pitch de la platine.
+Sans paramètre, il peut être assigné à des curseurs.
+Utilisé avec un nombre, il indique la position sur le curseur (et tient donc compte de pitch_range). (« pitch 0.25 » règle le pitch à −10 % si la plage de pitch est de 20 %)
+Utilisé avec un pourcentage, il donne une position absolue. « pitch 112 % » règle le pitch à +12 %
+Des valeurs relatives sont également possibles. « pitch +0.1 % », « pitch +0.1 bpm »
+Utilisé avec « bpm », le pitch est réglé pour correspondre au BPM. « pitch 130 bpm » règle le pitch pour correspondre à 130 BPM.</t>
+  </si>
+  <si>
+    <t>'sampler_assign 1 "path to vdjsample"' ajoute l’échantillon au slot 1 du sampler. (À utiliser pour le glisser-déposer sur la page des pads)</t>
+  </si>
+  <si>
+    <t>Obtient la couleur de l’échantillon sur cet emplacement s’il en a une.
+Le numéro d’échantillon tient compte de sampler_pad_page ; il doit donc être utilisé en combinaison avec sampler_pad.</t>
+  </si>
+  <si>
+    <t>Ouvre le menu du sample.
+Peut aussi être utilisé avec 'sampler_options "locked"' ou 'sampler_options "stemswap"' pour modifier les paramètres de la banque.</t>
+  </si>
+  <si>
+    <t>'sampler_pad_volume 1' définit le volume de l’échantillon sur le premier pad
+'sampler_pad_volume "siren"' définit le volume de l’échantillon 'siren.vdjsample'.</t>
+  </si>
+  <si>
+    <t>Modifiez la quantité d’un stem dans le mix. Les noms de stems sont : "HiHat", "Vocal", "Instru", "Bass", "Kick", ou vous pouvez utiliser des stems agrégés : "Melody" (Instru+Bass), "Rhythm" (HiHat+Kick), "MeloVocal" (Melody/Vocal), "MeloRhythm" (Melody/Rhythm).
+Pour obtenir une coupure à gauche et une isolation à droite du curseur, vous pouvez utiliser "FullVocal", "FullMelo" et "FullRhythm".
+Pour mapper un curseur afin qu’il contrôle toujours l’égaliseur, quel que soit le mode d’EQ, vous pouvez utiliser "stem FreqHi", "stem FreqMid" et "stem FreqLo".</t>
+  </si>
+  <si>
+    <t>obtenir la couleur par défaut d’un stem spécifique</t>
+  </si>
+  <si>
+    <t>Tous les champs visibles</t>
+  </si>
+  <si>
+    <t>Un e-mail vous a été envoyé avec un lien sécurisé.</t>
+  </si>
+  <si>
+    <t>Un e-mail contenant un lien de connexion a été envoyé à</t>
+  </si>
+  <si>
+    <t>Attribuer à un emplacement d’échantillon</t>
+  </si>
+  <si>
+    <t>Tentative de reconnexion</t>
+  </si>
+  <si>
+    <t>Ordinateurs autorisés</t>
+  </si>
+  <si>
+    <t>Vérifiez vos e-mails et cliquez sur le lien pour continuer.</t>
+  </si>
+  <si>
+    <t>Effet</t>
+  </si>
+  <si>
+    <t>Chemins d’accès aux fichiers</t>
+  </si>
+  <si>
+    <t>Maintenez la touche Maj enfoncée pour écraser l’emplacement d’échantillon.</t>
+  </si>
+  <si>
+    <t>Comprend</t>
+  </si>
+  <si>
+    <t>Banque verrouillée</t>
+  </si>
+  <si>
+    <t>M4A (format audio alternatif)</t>
+  </si>
+  <si>
+    <t>MKV (format vidéo alternatif)</t>
+  </si>
+  <si>
+    <t>(pas dans la playlist)</t>
+  </si>
+  <si>
+    <t>FX de pad</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Emplacements d’enregistrement..</t>
+  </si>
+  <si>
+    <t>Banques classiques</t>
+  </si>
+  <si>
+    <t>La banque d’échantillons est en lecture seule.</t>
+  </si>
+  <si>
+    <t>Afficher les morceaux présents sur le disque mais absents de toute playlist</t>
+  </si>
+  <si>
+    <t>Silence détecté</t>
+  </si>
+  <si>
+    <t>Silence détecté, enregistrement mis en pause</t>
+  </si>
+  <si>
+    <t>Titres des chansons</t>
+  </si>
+  <si>
+    <t>Les morceaux provenant d’un abonnement musical ne peuvent pas être exportés.</t>
+  </si>
+  <si>
+    <t>Banque StemSwap</t>
+  </si>
+  <si>
+    <t>Banques StemSwap</t>
+  </si>
+  <si>
+    <t>Votre compte est bloqué. Veuillez contacter l’assistance à %s</t>
+  </si>
+  <si>
+    <t>Style des effets audio natifs</t>
+  </si>
+  <si>
+    <t>Appliquer une correction (en millisecondes) au moment où les battements sont envoyés vers OS2L, afin de corriger les problèmes de synchronisation.</t>
+  </si>
+  <si>
+    <t>Maintenez le morceau synchronisé en quantifiant après avoir relâché le jog.</t>
+  </si>
+  <si>
+    <t>Lorsqu’un long silence est détecté pendant l’enregistrement, celui-ci se mettra en pause. Dès qu’un son est à nouveau détecté, l’enregistrement reprendra, mais le silence sera exclu de l’enregistrement.</t>
+  </si>
+  <si>
+    <t>Réinitialiser le gain et appliquer autoGain, s’il est activé, lors du chargement d’un nouveau morceau. Cette option n’a aucun effet lorsqu’un contrôleur qui applique le gain au niveau matériel est utilisé.</t>
+  </si>
+  <si>
+    <t>Réinitialiser la tonalité à la normale lors du chargement d’un nouveau morceau.</t>
+  </si>
+  <si>
+    <t>Masquer les anciennes banques héritées de VirtualDJ v8 si elles sont encore dans le dossier</t>
+  </si>
+  <si>
+    <t>Indique où router la sortie des samples dans les banques non‑stemSwap (ou déclenchés depuis le sampler de la SideView). 0 pour master/toutes les platines, -2 pour la platine déclencheuse, -1 pour le casque, 1 pour la platine 1, 2 pour la platine 2, etc.</t>
+  </si>
+  <si>
+    <t>Sélectionnez quels pads enregistreront quels stems pour les banques stemsSwap.</t>
   </si>
 </sst>
 </file>
@@ -778,695 +982,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Translated/Translated_French.xlsx
+++ b/Translator/excel/Translated/Translated_French.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VirtualDJ-Translations\Translator\excel\Translated\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CAC8E2-C61A-4FC1-936C-E3BBA98E9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -630,8 +636,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,10 +689,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,13 +709,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +761,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -772,6 +795,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -806,9 +830,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -981,15 +1006,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="78.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -999,674 +1030,674 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>183</v>
       </c>
     </row>
